--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,18 +43,12 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -64,181 +58,169 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>salad</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>wife</t>
   </si>
   <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>potatoes</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>ze</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>well</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>every</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>recommend</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>makes</t>
+    <t>coffee</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>coffee</t>
+    <t>make</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>one</t>
   </si>
   <si>
     <t>time</t>
@@ -605,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,10 +595,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -674,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -692,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -716,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -724,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4150943396226415</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -742,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K4">
         <v>0.890625</v>
@@ -774,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2868217054263566</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -792,110 +774,62 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>0.8840579710144928</v>
+      </c>
+      <c r="L5">
+        <v>61</v>
+      </c>
+      <c r="M5">
+        <v>61</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="L6">
+        <v>544</v>
+      </c>
+      <c r="M6">
+        <v>544</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="K5">
-        <v>0.8498452012383901</v>
-      </c>
-      <c r="L5">
-        <v>549</v>
-      </c>
-      <c r="M5">
-        <v>549</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="C6">
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>77</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6">
-        <v>0.8405797101449275</v>
-      </c>
-      <c r="L6">
-        <v>58</v>
-      </c>
-      <c r="M6">
-        <v>58</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.1189189189189189</v>
-      </c>
-      <c r="C7">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>163</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K7">
         <v>0.7931034482758621</v>
@@ -921,16 +855,16 @@
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.7333333333333333</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,21 +876,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7173913043478261</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,21 +902,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7142857142857143</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,21 +928,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.7056277056277056</v>
+        <v>0.6677966101694915</v>
       </c>
       <c r="L11">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="M11">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1020,21 +954,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.684931506849315</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L12">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1046,21 +980,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6818181818181818</v>
+        <v>0.6457142857142857</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1072,21 +1006,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.676056338028169</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1098,21 +1032,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6338983050847458</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L15">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="M15">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1124,21 +1058,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>108</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6211878009630819</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L16">
-        <v>774</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>774</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1150,47 +1084,47 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>472</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17">
+        <v>0.6164383561643836</v>
+      </c>
+      <c r="L17">
+        <v>45</v>
+      </c>
+      <c r="M17">
+        <v>45</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>28</v>
-      </c>
-      <c r="K17">
-        <v>0.6142857142857143</v>
-      </c>
-      <c r="L17">
-        <v>43</v>
-      </c>
-      <c r="M17">
-        <v>43</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.5942857142857143</v>
+        <v>0.6147672552166934</v>
       </c>
       <c r="L18">
-        <v>104</v>
+        <v>766</v>
       </c>
       <c r="M18">
-        <v>104</v>
+        <v>766</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1202,21 +1136,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>71</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.5833333333333334</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1228,47 +1162,47 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20">
+        <v>0.5694444444444444</v>
+      </c>
+      <c r="L20">
+        <v>41</v>
+      </c>
+      <c r="M20">
+        <v>41</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>31</v>
-      </c>
-      <c r="K20">
-        <v>0.578125</v>
-      </c>
-      <c r="L20">
-        <v>37</v>
-      </c>
-      <c r="M20">
-        <v>37</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5735294117647058</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1280,21 +1214,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="L22">
         <v>33</v>
       </c>
-      <c r="K22">
-        <v>0.5625</v>
-      </c>
-      <c r="L22">
-        <v>27</v>
-      </c>
       <c r="M22">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1306,21 +1240,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.543859649122807</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1332,21 +1266,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5192307692307693</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="L24">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1358,21 +1292,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5076923076923077</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1384,21 +1318,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5042735042735043</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L26">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M26">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1410,21 +1344,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K27">
-        <v>0.4819277108433735</v>
+        <v>0.46875</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1436,21 +1370,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>0.47</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L28">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1462,21 +1396,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>0.4670658682634731</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L29">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1488,21 +1422,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>89</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>0.4586466165413534</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L30">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1514,21 +1448,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>0.4489795918367347</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1540,21 +1474,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>27</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1566,21 +1500,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>0.3975903614457831</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="L33">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="M33">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1592,21 +1526,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>0.3950617283950617</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1618,21 +1552,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>0.3947368421052632</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1644,21 +1578,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>46</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>0.3692307692307693</v>
+        <v>0.3308270676691729</v>
       </c>
       <c r="L36">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M36">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1670,21 +1604,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>41</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>0.360655737704918</v>
+        <v>0.3229571984435798</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1696,21 +1630,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>39</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>0.3284313725490196</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L38">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1722,21 +1656,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>274</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>0.3233082706766917</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="L39">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="M39">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1748,21 +1682,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>90</v>
+        <v>530</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>0.3190661478599222</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L40">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="M40">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1774,21 +1708,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>0.2835616438356164</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="L41">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1800,21 +1734,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>523</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>0.2411194833153929</v>
+        <v>0.2376237623762376</v>
       </c>
       <c r="L42">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="M42">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1826,21 +1760,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>705</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>0.2407407407407407</v>
+        <v>0.2346609257265877</v>
       </c>
       <c r="L43">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="M43">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1852,21 +1786,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>82</v>
+        <v>711</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K44">
-        <v>0.2277227722772277</v>
+        <v>0.2302158273381295</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1878,21 +1812,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>78</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>0.1981981981981982</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1904,21 +1838,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K46">
-        <v>0.1943573667711599</v>
+        <v>0.2037617554858934</v>
       </c>
       <c r="L46">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M46">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1930,21 +1864,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K47">
-        <v>0.1788079470198675</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L47">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1956,21 +1890,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>124</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K48">
-        <v>0.1770334928229665</v>
+        <v>0.1675191815856777</v>
       </c>
       <c r="L48">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="M48">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1982,21 +1916,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>172</v>
+        <v>651</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K49">
-        <v>0.1726618705035971</v>
+        <v>0.1615894039735099</v>
       </c>
       <c r="L49">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="M49">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2008,21 +1942,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>115</v>
+        <v>633</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K50">
-        <v>0.1708609271523179</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="L50">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="M50">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2034,21 +1968,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>626</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K51">
-        <v>0.1649616368286445</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L51">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="M51">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2060,47 +1994,47 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>653</v>
+        <v>361</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K52">
-        <v>0.1543624161073825</v>
+        <v>0.1108108108108108</v>
       </c>
       <c r="L52">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M52">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>126</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K53">
-        <v>0.1265206812652068</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="L53">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M53">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2112,21 +2046,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>359</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K54">
-        <v>0.1218487394957983</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="L54">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M54">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2138,21 +2072,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>209</v>
+        <v>402</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K55">
-        <v>0.1182266009852217</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="L55">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M55">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2164,21 +2098,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>179</v>
+        <v>417</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K56">
-        <v>0.1134020618556701</v>
+        <v>0.08518518518518518</v>
       </c>
       <c r="L56">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M56">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2190,47 +2124,47 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K57">
-        <v>0.1108108108108108</v>
+        <v>0.081145584725537</v>
       </c>
       <c r="L57">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M57">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N57">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>329</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K58">
-        <v>0.0959409594095941</v>
+        <v>0.05876865671641791</v>
       </c>
       <c r="L58">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="M58">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2242,47 +2176,47 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>245</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K59">
-        <v>0.09429824561403509</v>
+        <v>0.054519368723099</v>
       </c>
       <c r="L59">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M59">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>413</v>
+        <v>659</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K60">
-        <v>0.09318181818181819</v>
+        <v>0.04612546125461255</v>
       </c>
       <c r="L60">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M60">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2294,137 +2228,33 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>399</v>
+        <v>517</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K61">
-        <v>0.06443914081145585</v>
+        <v>0.02339688041594454</v>
       </c>
       <c r="L61">
         <v>27</v>
       </c>
       <c r="M61">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K62">
-        <v>0.06169296987087518</v>
-      </c>
-      <c r="L62">
-        <v>43</v>
-      </c>
-      <c r="M62">
-        <v>44</v>
-      </c>
-      <c r="N62">
-        <v>0.98</v>
-      </c>
-      <c r="O62">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
-      <c r="J63" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K63">
-        <v>0.04850746268656717</v>
-      </c>
-      <c r="L63">
-        <v>52</v>
-      </c>
-      <c r="M63">
-        <v>52</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="64" spans="10:17">
-      <c r="J64" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K64">
-        <v>0.04805914972273567</v>
-      </c>
-      <c r="L64">
-        <v>26</v>
-      </c>
-      <c r="M64">
-        <v>27</v>
-      </c>
-      <c r="N64">
-        <v>0.96</v>
-      </c>
-      <c r="O64">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P64" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q64">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="65" spans="10:17">
-      <c r="J65" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K65">
-        <v>0.02941176470588235</v>
-      </c>
-      <c r="L65">
-        <v>34</v>
-      </c>
-      <c r="M65">
-        <v>35</v>
-      </c>
-      <c r="N65">
-        <v>0.97</v>
-      </c>
-      <c r="O65">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P65" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q65">
-        <v>1122</v>
+        <v>1127</v>
       </c>
     </row>
   </sheetData>
